--- a/hardware/schematic/calculations.xlsx
+++ b/hardware/schematic/calculations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="84">
   <si>
     <t xml:space="preserve">Voltage divider</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t xml:space="preserve">Vread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,05A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shunt</t>
   </si>
   <si>
     <t xml:space="preserve">Thermistor</t>
@@ -1006,7 +1012,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1169,11 +1175,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="49951048"/>
-        <c:axId val="81621308"/>
+        <c:axId val="16405721"/>
+        <c:axId val="72370988"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49951048"/>
+        <c:axId val="16405721"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1251,12 +1257,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81621308"/>
+        <c:crossAx val="72370988"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81621308"/>
+        <c:axId val="72370988"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,7 +1338,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49951048"/>
+        <c:crossAx val="16405721"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1364,16 +1370,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>513720</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>513360</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1386,7 +1392,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4476600"/>
+          <a:off x="170640" y="4173840"/>
           <a:ext cx="3196440" cy="3276000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1563,10 +1569,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:L20"/>
+  <dimension ref="B1:L40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
+      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1838,6 +1844,40 @@
       <c r="L20" s="46" t="n">
         <f aca="false">(L18-L19)/L18</f>
         <v>0.0957446808510638</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="0" t="n">
+        <v>0.276</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="0" t="n">
+        <v>23.58</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="0" t="n">
+        <f aca="false">F37/F38</f>
+        <v>1.01781170483461</v>
       </c>
     </row>
   </sheetData>
@@ -1856,231 +1896,233 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:F20"/>
+  <dimension ref="B1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="L38" activeCellId="0" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.71"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="48" t="n">
+      <c r="C4" s="48" t="n">
         <v>3.3</v>
       </c>
-      <c r="C4" s="49" t="n">
+      <c r="D4" s="49" t="n">
         <v>3.3</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="C5" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="D5" s="10" t="n">
         <v>3.3</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15" t="n">
-        <f aca="false">(B7*B4/B5)-B7</f>
+      <c r="C6" s="15" t="n">
+        <f aca="false">(C7*C4/C5)-C7</f>
         <v>230000</v>
       </c>
-      <c r="C6" s="16" t="n">
-        <f aca="false">(C7*C4/C5)-C7</f>
+      <c r="D6" s="16" t="n">
+        <f aca="false">(D7*D4/D5)-D7</f>
         <v>0</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="C7" s="21" t="n">
         <v>100000</v>
       </c>
-      <c r="C7" s="22" t="n">
+      <c r="D7" s="22" t="n">
         <v>100000</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>26</v>
+      <c r="F7" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="26" t="n">
+      <c r="C10" s="26" t="n">
         <v>4095</v>
       </c>
-      <c r="C10" s="27" t="n">
+      <c r="D10" s="27" t="n">
         <v>4095</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="48" t="n">
+      <c r="C11" s="48" t="n">
         <v>4095</v>
       </c>
-      <c r="C11" s="49" t="n">
+      <c r="D11" s="49" t="n">
         <v>4095</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="E11" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="32" t="n">
-        <f aca="false">B11*(B5/B10)*((B6+B7)/B7)</f>
-        <v>3.3</v>
-      </c>
-      <c r="C12" s="33" t="n">
+      <c r="C12" s="32" t="n">
         <f aca="false">C11*(C5/C10)*((C6+C7)/C7)</f>
         <v>3.3</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="33" t="n">
+        <f aca="false">D11*(D5/D10)*((D6+D7)/D7)</f>
+        <v>3.3</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="51"/>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="50" t="s">
+        <v>30</v>
+      </c>
       <c r="C15" s="51"/>
-      <c r="D15" s="52" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E15" s="0" t="s">
+      <c r="D15" s="51"/>
+      <c r="E15" s="52" t="n">
+        <v>90000</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="48"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="53" t="s">
+        <v>31</v>
+      </c>
       <c r="C16" s="48"/>
-      <c r="D16" s="49" t="n">
-        <f aca="false">B4</f>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49" t="n">
+        <f aca="false">C4</f>
         <v>3.3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="48"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="53" t="s">
+        <v>32</v>
+      </c>
       <c r="C17" s="48"/>
-      <c r="D17" s="49" t="n">
-        <f aca="false">B7</f>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49" t="n">
+        <f aca="false">C7</f>
         <v>100000</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="F17" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="48"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="53" t="s">
+        <v>33</v>
+      </c>
       <c r="C18" s="48"/>
-      <c r="D18" s="49" t="n">
+      <c r="D18" s="48"/>
+      <c r="E18" s="49" t="n">
         <v>25</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="48"/>
+      <c r="F18" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="53" t="s">
+        <v>35</v>
+      </c>
       <c r="C19" s="48"/>
-      <c r="D19" s="49" t="n">
+      <c r="D19" s="48"/>
+      <c r="E19" s="49" t="n">
         <v>3950</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33" t="n">
+        <f aca="false">1/(((LOG((E15/E17))/E19))+(1/(E18+273.15)))-273.15</f>
+        <v>26.0333258704154</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33" t="n">
-        <f aca="false">1/(((LOG((D15/D17))/D19))+(1/(D18+273.15)))-273.15</f>
-        <v>31.9320901755152</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>35</v>
+      <c r="G20" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2145,7 @@
   <dimension ref="A2:T30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2118,19 +2160,19 @@
   <sheetData>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="3" t="s">
@@ -2142,7 +2184,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="53" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="48" t="n">
         <v>3.3</v>
@@ -2154,7 +2196,7 @@
         <v>5</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="48" t="n">
         <v>0.05</v>
@@ -2168,7 +2210,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="53" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="48" t="n">
         <v>25</v>
@@ -2180,7 +2222,7 @@
         <v>5</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="48" t="n">
         <v>5</v>
@@ -2189,12 +2231,12 @@
         <v>5</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6" s="48" t="n">
         <v>5</v>
@@ -2203,7 +2245,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P6" s="14" t="s">
         <v>4</v>
@@ -2222,7 +2264,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" s="48" t="n">
         <v>0.05</v>
@@ -2246,12 +2288,12 @@
         <v>5</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" s="15" t="n">
         <f aca="false">B6*B7</f>
@@ -2265,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="32" t="n">
         <f aca="false">Q7/Q6</f>
@@ -2276,12 +2318,12 @@
         <v>13.2</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="15" t="n">
         <f aca="false">B8*B6</f>
@@ -2292,12 +2334,12 @@
         <v>1.25</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B10" s="58" t="n">
         <v>1</v>
@@ -2309,7 +2351,7 @@
         <v>5</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2328,12 +2370,12 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="61" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C12" s="61"/>
       <c r="L12" s="48"/>
       <c r="M12" s="61" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N12" s="61"/>
       <c r="P12" s="31" t="s">
@@ -2351,26 +2393,26 @@
         <v>9</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" s="62"/>
     </row>
     <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="64" t="n">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="B14" s="65"/>
       <c r="F14" s="66" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G14" s="66"/>
       <c r="J14" s="66" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K14" s="66"/>
       <c r="L14" s="48"/>
@@ -2381,7 +2423,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15" s="61"/>
       <c r="F15" s="66"/>
@@ -2407,7 +2449,7 @@
       <c r="B16" s="62"/>
       <c r="C16" s="67"/>
       <c r="D16" s="68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E16" s="69" t="n">
         <f aca="false">B8</f>
@@ -2416,7 +2458,7 @@
       <c r="F16" s="66"/>
       <c r="G16" s="66"/>
       <c r="H16" s="68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I16" s="70" t="n">
         <f aca="false">B10</f>
@@ -2425,7 +2467,7 @@
       <c r="J16" s="66"/>
       <c r="K16" s="66"/>
       <c r="L16" s="68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M16" s="70" t="n">
         <f aca="false">B4</f>
@@ -2451,7 +2493,7 @@
       </c>
       <c r="E17" s="71" t="n">
         <f aca="false">A14*B7</f>
-        <v>0.0475</v>
+        <v>0.1</v>
       </c>
       <c r="F17" s="72" t="n">
         <f aca="false">I16/E16</f>
@@ -2466,7 +2508,7 @@
       <c r="K17" s="72"/>
       <c r="M17" s="71" t="n">
         <f aca="false">H24*J17</f>
-        <v>0.627</v>
+        <v>1.32</v>
       </c>
       <c r="P17" s="31" t="s">
         <v>18</v>
@@ -2488,7 +2530,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" s="73"/>
       <c r="F18" s="72"/>
@@ -2497,7 +2539,7 @@
       <c r="J18" s="72"/>
       <c r="K18" s="72"/>
       <c r="P18" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q18" s="0" t="n">
         <f aca="false">(Q5/Q15)*Q16</f>
@@ -2522,18 +2564,18 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C23" s="61"/>
       <c r="H23" s="61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I23" s="61"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H24" s="74" t="n">
         <f aca="false">E17*F17</f>
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="I24" s="74"/>
     </row>
@@ -2555,12 +2597,12 @@
         <v>0.805860805860806</v>
       </c>
       <c r="S27" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P28" s="56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q28" s="15" t="n">
         <f aca="false">1000*Q6/Q15</f>
@@ -2571,12 +2613,12 @@
         <v>0.0610500610500611</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P29" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q29" s="32" t="n">
         <f aca="false">1000*Q5/Q15</f>
@@ -2587,7 +2629,7 @@
         <v>1.22100122100122</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2635,7 +2677,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,36 +2693,36 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="76" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>1E-007</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="33" t="n">
         <f aca="false">1/(2*PI()*B2*B3)</f>
         <v>159.154943091895</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="77" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2801,7 +2843,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,12 +2857,12 @@
         <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="53" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" s="49" t="n">
         <v>0.6</v>
@@ -2841,7 +2883,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2855,12 +2897,12 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,12 +2917,12 @@
         <v>5</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="87" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B9" s="88" t="n">
         <v>0.6</v>
@@ -2900,7 +2942,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,7 +2956,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
